--- a/rule extaction with cp-nets/cp-nets/agri/reports/master.xlsx
+++ b/rule extaction with cp-nets/cp-nets/agri/reports/master.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>R#</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>revised</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,15 +378,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="1"/>
     <col min="8" max="8" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -391,19 +395,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -417,19 +421,19 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>196</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>17</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>294</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
@@ -443,14 +447,263 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>23</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>218</v>
+      </c>
+      <c r="E3" s="1">
+        <v>311</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>179</v>
+      </c>
+      <c r="E4" s="1">
+        <v>307</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>283</v>
+      </c>
+      <c r="E5" s="1">
+        <v>216</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>235</v>
+      </c>
+      <c r="E6" s="1">
+        <v>311</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>247</v>
+      </c>
+      <c r="E7" s="1">
+        <v>228</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>234</v>
+      </c>
+      <c r="E8" s="1">
+        <v>305</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>234</v>
+      </c>
+      <c r="E9" s="1">
+        <v>305</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>308</v>
+      </c>
+      <c r="C10" s="1">
+        <v>241</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>308</v>
+      </c>
+      <c r="E11" s="1">
+        <v>241</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>311</v>
+      </c>
+      <c r="E12" s="1">
+        <v>241</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>168</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>142</v>
+      </c>
+      <c r="E13" s="1">
+        <v>239</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>193</v>
+      </c>
+      <c r="E14" s="1">
+        <v>241</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>310</v>
+      </c>
+      <c r="E15" s="1">
+        <v>241</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
